--- a/chatlog.xlsx
+++ b/chatlog.xlsx
@@ -1,59 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>Prompt</t>
-  </si>
-  <si>
-    <t>Message</t>
-  </si>
-  <si>
-    <t>apa perbedaan CNN dan NN pada machine learning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-1. CNN (Convolutional Neural Network) adalah jenis jaringan saraf yang dirancang khusus untuk menangani masalah pengolahan citra. Ini dicapai dengan menggunakan lapisan konvolusi, pooling dan pengaturan untuk memisahkan fitur dari citra. CNN dapat digunakan untuk membantu mengklasifikasikan citra, memprediksi perilaku, dan melakukan pengenalan obyek.
-2. NN (Neural Network) adalah jaringan saraf yang berbasis input-output. Ini mengandalkan lapisan tersembunyi untuk menghubungkan input dengan output. Jaringan saraf ini dapat digunakan untuk memecahkan masalah pembelajaran mesin seperti klasifikasi, prediksi, dan regresi.</t>
-  </si>
-  <si>
-    <t>siapa penulisa lagu indonesia raya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Lagu Indonesia Raya ditulis oleh Wage Rudolf Soepratman pada tahun 1928. Lagu ini menjadi lagu kebangsaan Indonesia pada 1945.</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -72,24 +46,86 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -377,42 +413,123 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="1" max="1"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
+    <row r="1" ht="18.75" customHeight="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Prompt</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Message</t>
+        </is>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="69.75">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
+    <row r="2" ht="69.75" customHeight="1">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>apa perbedaan CNN dan NN pada machine learning</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+1. CNN (Convolutional Neural Network) adalah jenis jaringan saraf yang dirancang khusus untuk menangani masalah pengolahan citra. Ini dicapai dengan menggunakan lapisan konvolusi, pooling dan pengaturan untuk memisahkan fitur dari citra. CNN dapat digunakan untuk membantu mengklasifikasikan citra, memprediksi perilaku, dan melakukan pengenalan obyek.
+2. NN (Neural Network) adalah jaringan saraf yang berbasis input-output. Ini mengandalkan lapisan tersembunyi untuk menghubungkan input dengan output. Jaringan saraf ini dapat digunakan untuk memecahkan masalah pembelajaran mesin seperti klasifikasi, prediksi, dan regresi.</t>
+        </is>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="44.25">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
+    <row r="3" ht="44.25" customHeight="1">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>siapa penulisa lagu indonesia raya</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Lagu Indonesia Raya ditulis oleh Wage Rudolf Soepratman pada tahun 1928. Lagu ini menjadi lagu kebangsaan Indonesia pada 1945.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>package com.example.android.tourguide;
+import android.content.Context;
+import android.support.v4.app.Fragment;
+import android.support.v4.app.FragmentManager;
+import android.support.v4.app.FragmentPagerAdapter;
+public class SimpleFragmentPagerAdapter extends FragmentPagerAdapter {
+    private Context mContext;
+    public SimpleFragmentPagerAdapter(Context context, FragmentManager fm) {
+        super(fm);
+        mContext = context;
+    }
+    @Override
+    public Fragment getItem(int position) {
+        if (position == 0) {
+            return new AttractionsFragment();
+        } else if (position == 1) {
+            return new RestaurantsFragment();
+        } else if (position == 2) {
+            return new ShoppingFragment();
+        } else {
+            return new EventsFragment();
+        }
+    }
+    @Override
+    public int getCount() {
+        return 4;
+    }
+    @Override
+    public CharSequence getPageTitle(int position) {
+        if (position == 0) {
+            return mContext.getString(R.string.category_attractions);
+        } else if (position == 1) {
+            return mContext.getString(R.string.category_restaurants);
+        } else if (position == 2) {
+            return mContext.getString(R.string.category_shopping);
+        } else {
+            return mContext.getString(R.string.category_events);
+        }
+    }
+}</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Q: Why does the following code not work?
+The following code does not work because the syntax is incorrect. The &lt;code&gt;if&lt;/code&gt; statement should include parentheses around the condition and curly braces around the body of the statement.
+&lt;code&gt;if x &amp;gt; 10
+    console.log('x is greater than 10');
+&lt;/code&gt;
+The correct syntax would be:
+&lt;code&gt;if (x &amp;gt; 10) {
+    console.log('x is greater than 10');
+}
+&lt;/code&gt;
+</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/chatlog.xlsx
+++ b/chatlog.xlsx
@@ -2,8 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -45,17 +46,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -134,10 +129,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -175,71 +170,69 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -263,53 +256,54 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="51000"/>
+                <a:shade val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
+                <a:shade val="93000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="94000"/>
+                <a:shade val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="9500"/>
+              <a:shade val="95000"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -319,7 +313,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -328,7 +322,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -337,7 +331,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -345,10 +339,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -377,7 +371,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="20000"/>
+                <a:shade val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -390,12 +384,13 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
                 <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
+                <a:shade val="30000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -415,124 +410,56 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <outlinePr summaryBelow="0"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="1" max="1"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="2" max="2"/>
-  </cols>
   <sheetData>
-    <row r="1" ht="18.75" customHeight="1">
-      <c r="A1" s="2" t="inlineStr">
+    <row r="1">
+      <c r="A1" t="inlineStr">
         <is>
           <t>Prompt</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>Message</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="69.75" customHeight="1">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>apa perbedaan CNN dan NN pada machine learning</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>siapa itu albert einstein</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-1. CNN (Convolutional Neural Network) adalah jenis jaringan saraf yang dirancang khusus untuk menangani masalah pengolahan citra. Ini dicapai dengan menggunakan lapisan konvolusi, pooling dan pengaturan untuk memisahkan fitur dari citra. CNN dapat digunakan untuk membantu mengklasifikasikan citra, memprediksi perilaku, dan melakukan pengenalan obyek.
-2. NN (Neural Network) adalah jaringan saraf yang berbasis input-output. Ini mengandalkan lapisan tersembunyi untuk menghubungkan input dengan output. Jaringan saraf ini dapat digunakan untuk memecahkan masalah pembelajaran mesin seperti klasifikasi, prediksi, dan regresi.</t>
+Albert Einstein adalah fisikawan Jerman-Amerika yang dikenal karena teori relativitasnya dan kontribusinya lainnya terhadap fisika modern. Dia juga dikenal karena kecerdasannya dan kontribusinya dalam bidang filsafat, etika, dan politik.</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="44.25" customHeight="1">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>siapa penulisa lagu indonesia raya</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="inlineStr">
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>apa itu machine learning</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Lagu Indonesia Raya ditulis oleh Wage Rudolf Soepratman pada tahun 1928. Lagu ini menjadi lagu kebangsaan Indonesia pada 1945.</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>package com.example.android.tourguide;
-import android.content.Context;
-import android.support.v4.app.Fragment;
-import android.support.v4.app.FragmentManager;
-import android.support.v4.app.FragmentPagerAdapter;
-public class SimpleFragmentPagerAdapter extends FragmentPagerAdapter {
-    private Context mContext;
-    public SimpleFragmentPagerAdapter(Context context, FragmentManager fm) {
-        super(fm);
-        mContext = context;
-    }
-    @Override
-    public Fragment getItem(int position) {
-        if (position == 0) {
-            return new AttractionsFragment();
-        } else if (position == 1) {
-            return new RestaurantsFragment();
-        } else if (position == 2) {
-            return new ShoppingFragment();
-        } else {
-            return new EventsFragment();
-        }
-    }
-    @Override
-    public int getCount() {
-        return 4;
-    }
-    @Override
-    public CharSequence getPageTitle(int position) {
-        if (position == 0) {
-            return mContext.getString(R.string.category_attractions);
-        } else if (position == 1) {
-            return mContext.getString(R.string.category_restaurants);
-        } else if (position == 2) {
-            return mContext.getString(R.string.category_shopping);
-        } else {
-            return mContext.getString(R.string.category_events);
-        }
-    }
-}</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Q: Why does the following code not work?
-The following code does not work because the syntax is incorrect. The &lt;code&gt;if&lt;/code&gt; statement should include parentheses around the condition and curly braces around the body of the statement.
-&lt;code&gt;if x &amp;gt; 10
-    console.log('x is greater than 10');
-&lt;/code&gt;
-The correct syntax would be:
-&lt;code&gt;if (x &amp;gt; 10) {
-    console.log('x is greater than 10');
-}
-&lt;/code&gt;
-</t>
+Machine Learning adalah cabang dari ilmu komputer yang mempelajari bagaimana komputer dapat mempelajari dari data tanpa diberi instruksi yang spesifik. Hal ini dicapai dengan menggunakan algoritma yang dapat membuat keputusan dan mengambil tindakan berdasarkan data yang diberikan. Machine Learning dapat digunakan dalam berbagai bidang, termasuk pemrosesan bahasa alami, pengenalan pola, pengenalan wajah, rekomendasi, dan banyak lagi.</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>